--- a/data_output/prism_passive/all_passive_Stiffness index (Nmper_deg_sq).xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness index (Nmper_deg_sq).xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.4954670428290497</v>
+        <v>1.495467022071606</v>
       </c>
       <c r="C2">
-        <v>1.7431666723662158</v>
+        <v>1.7431666122927054</v>
       </c>
       <c r="D2">
-        <v>0.46492898831077917</v>
+        <v>0.46492897549283796</v>
       </c>
       <c r="E2">
-        <v>0.13151735678123475</v>
+        <v>0.13151735998103856</v>
       </c>
       <c r="F2">
-        <v>2.5604464424620574</v>
+        <v>2.5604463995783346</v>
       </c>
       <c r="G2">
-        <v>1.5291063589981586</v>
+        <v>1.5291063184304972</v>
       </c>
       <c r="H2">
-        <v>3.095229457196762</v>
+        <v>3.0952293583964998</v>
       </c>
       <c r="I2">
-        <v>1.6756618317707173</v>
+        <v>1.6756617962031086</v>
       </c>
       <c r="J2">
-        <v>1.9124909723726893</v>
+        <v>1.9124909180149086</v>
       </c>
       <c r="K2">
-        <v>1.3838610488364602</v>
+        <v>1.3838610213645517</v>
       </c>
       <c r="L2">
-        <v>1.1788645482119049</v>
+        <v>1.1788645165685692</v>
       </c>
       <c r="M2">
-        <v>0.94282099065952996</v>
+        <v>0.94282093680136914</v>
       </c>
       <c r="N2">
-        <v>2.5973429769452094</v>
+        <v>2.5973429097840155</v>
       </c>
       <c r="O2">
-        <v>7.9262754393735729E-2</v>
+        <v>7.926274116058174E-2</v>
       </c>
       <c r="P2">
-        <v>7.2626865527932507</v>
+        <v>7.2626863854445469</v>
       </c>
       <c r="Q2">
-        <v>0.19321376826019915</v>
+        <v>0.19321376535757617</v>
       </c>
       <c r="R2">
-        <v>-2.5012711475335467</v>
+        <v>-2.5012711479453262</v>
       </c>
       <c r="S2">
-        <v>2.7445004868730458</v>
+        <v>2.7445005147062118</v>
       </c>
       <c r="T2">
-        <v>-1.7488973553786313</v>
+        <v>-1.7488973388167106</v>
       </c>
       <c r="U2">
-        <v>3.708646157783948</v>
+        <v>3.7086460685163294</v>
       </c>
       <c r="V2">
-        <v>-0.50700077895493945</v>
+        <v>-0.50700078838529472</v>
       </c>
       <c r="W2">
-        <v>1.260937224665901</v>
+        <v>1.2609371890871219</v>
       </c>
       <c r="X2">
-        <v>1.4473034776402003</v>
+        <v>1.4473034247326169</v>
       </c>
       <c r="Y2">
-        <v>0.48634539266907978</v>
+        <v>0.48634536482639196</v>
       </c>
       <c r="Z2">
-        <v>0.25608262754823657</v>
+        <v>0.25608262800957965</v>
       </c>
       <c r="AA2">
-        <v>1.0787420183467316</v>
+        <v>1.0787420008803841</v>
       </c>
       <c r="AB2">
-        <v>1.088374994588178</v>
+        <v>1.0883749546445602</v>
       </c>
       <c r="AC2">
-        <v>1.0009959966159687</v>
+        <v>1.0009959602299563</v>
       </c>
       <c r="AD2">
-        <v>0.53933569650697588</v>
+        <v>0.53933568868648962</v>
       </c>
       <c r="AE2">
-        <v>1.536227027381992</v>
+        <v>1.5362270057050966</v>
       </c>
       <c r="AF2">
-        <v>3.4478246360874314</v>
+        <v>3.4478245548661102</v>
       </c>
       <c r="AG2">
-        <v>1.3816190214023336</v>
+        <v>1.3816189653339215</v>
       </c>
       <c r="AH2">
-        <v>1.4309277489952492</v>
+        <v>1.4309277101643441</v>
       </c>
       <c r="AI2">
-        <v>1.034776474286359</v>
+        <v>1.0347764230809386</v>
       </c>
       <c r="AJ2">
-        <v>1.074287718301566</v>
+        <v>1.0742876980981118</v>
       </c>
       <c r="AK2">
-        <v>0.85970558025326538</v>
+        <v>0.85970555950178751</v>
       </c>
       <c r="AL2">
-        <v>0.11484780474532529</v>
+        <v>0.114847784455746</v>
       </c>
       <c r="AM2">
-        <v>1.3393544055518589</v>
+        <v>1.3393543758901987</v>
       </c>
       <c r="AN2">
-        <v>2.0249930197504859E-2</v>
+        <v>2.024992626773724E-2</v>
       </c>
       <c r="AO2">
-        <v>0.81504552753397097</v>
+        <v>0.81504548883531958</v>
       </c>
       <c r="AP2">
-        <v>0.89859485741388767</v>
+        <v>0.89859485287859298</v>
       </c>
       <c r="AQ2">
-        <v>-0.42868167495201948</v>
+        <v>-0.42868167392604972</v>
       </c>
       <c r="AR2">
-        <v>4.9572578099298976</v>
+        <v>4.9572576972276741</v>
       </c>
       <c r="AS2">
-        <v>0.12902138259745813</v>
+        <v>0.12902137320516305</v>
       </c>
       <c r="AT2">
-        <v>0.3057962821717391</v>
+        <v>0.30579626658769682</v>
       </c>
       <c r="AU2">
-        <v>0.75570796181999911</v>
+        <v>0.75570794042962242</v>
       </c>
       <c r="AV2">
-        <v>0.41190517407344324</v>
+        <v>0.41190516430980967</v>
       </c>
       <c r="AW2">
-        <v>0.75230750348650088</v>
+        <v>0.75230748557532445</v>
       </c>
       <c r="AX2">
-        <v>0.30691563689911089</v>
+        <v>0.30691562338841849</v>
       </c>
       <c r="AY2">
-        <v>0.45754930510362762</v>
+        <v>0.45754929417419182</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2794912160906522</v>
+        <v>2.2794911531207016</v>
       </c>
       <c r="C3">
-        <v>0.91077750515056632</v>
+        <v>0.91077747850487056</v>
       </c>
       <c r="D3">
-        <v>2.8595965382133586</v>
+        <v>2.8595964932711739</v>
       </c>
       <c r="E3">
-        <v>-0.37072828588444773</v>
+        <v>-0.37072825151350203</v>
       </c>
       <c r="F3">
-        <v>0.24469845114140235</v>
+        <v>0.24469843754949067</v>
       </c>
       <c r="G3">
-        <v>1.1031865537457048</v>
+        <v>1.1031865002422798</v>
       </c>
       <c r="H3">
-        <v>2.7245545561545037</v>
+        <v>2.7245544768852712</v>
       </c>
       <c r="I3">
-        <v>-0.54145280545066354</v>
+        <v>-0.54145279620922104</v>
       </c>
       <c r="J3">
-        <v>2.4917370092013678</v>
+        <v>2.4917369642170191</v>
       </c>
       <c r="K3">
-        <v>-0.32069016047962928</v>
+        <v>-0.32069017481021994</v>
       </c>
       <c r="L3">
-        <v>1.3543137019800371</v>
+        <v>1.3543136629665273</v>
       </c>
       <c r="M3">
-        <v>1.8738364247376527</v>
+        <v>1.8740873992522018</v>
       </c>
       <c r="N3">
-        <v>1.9644349595372967</v>
+        <v>1.9644349147433966</v>
       </c>
       <c r="O3">
-        <v>0.79559406933510612</v>
+        <v>0.79559406228726004</v>
       </c>
       <c r="P3">
-        <v>5.8557475888656896</v>
+        <v>5.8557474533023788</v>
       </c>
       <c r="Q3">
-        <v>1.4657982314679483</v>
+        <v>1.4657981984695596</v>
       </c>
       <c r="R3">
-        <v>0.76344004307718238</v>
+        <v>0.76344003206562405</v>
       </c>
       <c r="S3">
-        <v>3.7470472378703508</v>
+        <v>3.7470471734868034</v>
       </c>
       <c r="T3">
-        <v>0.31368174442189373</v>
+        <v>0.31368173440648217</v>
       </c>
       <c r="U3">
-        <v>2.842522590520709</v>
+        <v>2.8425225592273322</v>
       </c>
       <c r="V3">
-        <v>6.2862279858251302</v>
+        <v>6.286227895969378</v>
       </c>
       <c r="W3">
-        <v>2.8910235999346803</v>
+        <v>2.8910235510832445</v>
       </c>
       <c r="X3">
-        <v>3.3633114597832363</v>
+        <v>3.3633113772574612</v>
       </c>
       <c r="Y3">
-        <v>2.1188124352985445</v>
+        <v>2.1188123994006967</v>
       </c>
       <c r="Z3">
-        <v>-0.35214465403441431</v>
+        <v>-0.35214465019206581</v>
       </c>
       <c r="AA3">
-        <v>1.1661817479980496</v>
+        <v>1.166181707707421</v>
       </c>
       <c r="AB3">
-        <v>1.0402123403814794</v>
+        <v>1.0402123117815096</v>
       </c>
       <c r="AC3">
-        <v>0.24743560081681309</v>
+        <v>0.24743558669626098</v>
       </c>
       <c r="AD3">
-        <v>0.80033393810624653</v>
+        <v>0.80033392295644235</v>
       </c>
       <c r="AE3">
-        <v>0.61874415399349314</v>
+        <v>0.61874412887464847</v>
       </c>
       <c r="AF3">
-        <v>2.3546675448184526</v>
+        <v>2.3546674807851069</v>
       </c>
       <c r="AG3">
-        <v>1.6241013811025793</v>
+        <v>1.6241013497689771</v>
       </c>
       <c r="AH3">
-        <v>3.7918033246414178E-2</v>
+        <v>3.7918027779903198E-2</v>
       </c>
       <c r="AI3">
-        <v>1.1817972935697123</v>
+        <v>1.1817972711197116</v>
       </c>
       <c r="AJ3">
-        <v>-0.53364204167776474</v>
+        <v>-0.53364204158314743</v>
       </c>
       <c r="AK3">
-        <v>0.63605018446476691</v>
+        <v>0.63605016745788434</v>
       </c>
       <c r="AL3">
-        <v>1.9260132670499968</v>
+        <v>1.9260132224054247</v>
       </c>
       <c r="AM3">
-        <v>1.8793967812289716</v>
+        <v>1.8793967265655318</v>
       </c>
       <c r="AN3">
-        <v>0.92492500881602513</v>
+        <v>0.92492499107786386</v>
       </c>
       <c r="AO3">
-        <v>2.0082237346241394</v>
+        <v>2.008223673556996</v>
       </c>
       <c r="AP3">
-        <v>0.51777050827372262</v>
+        <v>0.51777049174383061</v>
       </c>
       <c r="AQ3">
-        <v>1.1368475947338152</v>
+        <v>1.1368475746829478</v>
       </c>
       <c r="AR3">
-        <v>0.2609425634932705</v>
+        <v>0.26094255856798293</v>
       </c>
       <c r="AS3">
-        <v>0.27632794882034634</v>
+        <v>0.27632793537943967</v>
       </c>
       <c r="AT3">
-        <v>0.62620608751882179</v>
+        <v>0.62620607056820454</v>
       </c>
       <c r="AU3">
-        <v>-0.91158557810343255</v>
+        <v>-0.91158557016448583</v>
       </c>
       <c r="AV3">
-        <v>0.41889039339367751</v>
+        <v>0.41889037547976538</v>
       </c>
       <c r="AW3">
-        <v>0.69529059174540553</v>
+        <v>0.69529057238900516</v>
       </c>
       <c r="AX3">
-        <v>0.80915355857475457</v>
+        <v>0.80915354486256241</v>
       </c>
       <c r="AY3">
-        <v>1.1502381583143839</v>
+        <v>1.150238114106181</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_Stiffness index (Nmper_deg_sq).xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness index (Nmper_deg_sq).xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>1.495467022071606</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>1.7431666122927054</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.46492897549283796</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.13151735998103856</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>2.5604463995783346</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.5291063184304972</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.0952293583964998</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>1.6756617962031086</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>1.9124909180149086</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>1.3838610213645517</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>1.1788645165685692</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>0.94282093680136914</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>2.5973429097840155</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>7.926274116058174E-2</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>7.2626863854445469</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.19321376535757617</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>-2.5012711479453262</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>2.7445005147062118</v>
@@ -588,55 +477,55 @@
         <v>0.25608262800957965</v>
       </c>
       <c r="AA2">
-        <v>1.0787420008803841</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>1.0883749546445602</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>1.0009959602299563</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.53933568868648962</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>1.5362270057050966</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3.4478245548661102</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.3816189653339215</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>1.4309277101643441</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>1.0347764230809386</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.0742876980981118</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.85970555950178751</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.114847784455746</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>1.3393543758901987</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>2.024992626773724E-2</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.81504548883531958</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.89859485287859298</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>-0.42868167392604972</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>4.9572576972276741</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>2.2794911531207016</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.91077747850487056</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>2.8595964932711739</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>-0.37072825151350203</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>0.24469843754949067</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.1031865002422798</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.7245544768852712</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>-0.54145279620922104</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>2.4917369642170191</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-0.32069017481021994</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1.3543136629665273</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>1.8740873992522018</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>1.9644349147433966</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0.79559406228726004</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>5.8557474533023788</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.4657981984695596</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.76344003206562405</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>3.7470471734868034</v>
@@ -743,55 +629,55 @@
         <v>-0.35214465019206581</v>
       </c>
       <c r="AA3">
-        <v>1.166181707707421</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>1.0402123117815096</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>0.24743558669626098</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.80033392295644235</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>0.61874412887464847</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>2.3546674807851069</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.6241013497689771</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>3.7918027779903198E-2</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.1817972711197116</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>-0.53364204158314743</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.63605016745788434</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>1.9260132224054247</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>1.8793967265655318</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.92492499107786386</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>2.008223673556996</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.51777049174383061</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>1.1368475746829478</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0.26094255856798293</v>

--- a/data_output/prism_passive/all_passive_Stiffness index (Nmper_deg_sq).xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness index (Nmper_deg_sq).xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.3212468956662206E-2</v>
+        <v>2.9867720791489222E-2</v>
       </c>
       <c r="C2">
-        <v>0.10034018691484817</v>
+        <v>-0.1223857107086631</v>
       </c>
       <c r="D2">
-        <v>4.2106928147775134E-2</v>
+        <v>9.5783367102774079E-3</v>
       </c>
       <c r="E2">
-        <v>8.1172066819019589E-2</v>
+        <v>2.4770903962902775E-2</v>
       </c>
       <c r="F2">
         <v>0.13998559316630302</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.13391088572376206</v>
+        <v>4.5045087332597329E-2</v>
       </c>
       <c r="C3">
-        <v>7.3617661376565183E-2</v>
+        <v>0.11486536248197167</v>
       </c>
       <c r="D3">
-        <v>0.13915110513472279</v>
+        <v>3.0193810726400653E-2</v>
       </c>
       <c r="E3">
-        <v>1.4876241837465281E-2</v>
+        <v>4.8525950261542029E-2</v>
       </c>
       <c r="F3">
         <v>4.1928646448520263E-2</v>

--- a/data_output/prism_passive/all_passive_Stiffness index (Nmper_deg_sq).xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness index (Nmper_deg_sq).xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8.3212468956662206E-2</v>
+        <v>0.17975631303613016</v>
       </c>
       <c r="C2">
-        <v>0.10034018691484817</v>
+        <v>2.9867720791489222E-2</v>
       </c>
       <c r="D2">
-        <v>4.2106928147775134E-2</v>
+        <v>0.10359765777763366</v>
       </c>
       <c r="E2">
-        <v>8.1172066819019589E-2</v>
+        <v>9.5783367102774079E-3</v>
       </c>
       <c r="F2">
         <v>0.13998559316630302</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.13391088572376206</v>
+        <v>0.12772286123046353</v>
       </c>
       <c r="C3">
-        <v>7.3617661376565183E-2</v>
+        <v>4.5045087332597329E-2</v>
       </c>
       <c r="D3">
-        <v>0.13915110513472279</v>
+        <v>0.230627152085778</v>
       </c>
       <c r="E3">
-        <v>1.4876241837465281E-2</v>
+        <v>3.0193810726400653E-2</v>
       </c>
       <c r="F3">
         <v>4.1928646448520263E-2</v>

--- a/data_output/prism_passive/all_passive_Stiffness index (Nmper_deg_sq).xlsx
+++ b/data_output/prism_passive/all_passive_Stiffness index (Nmper_deg_sq).xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>8.3212468150967833E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.10034018387165211</v>
+      </c>
+      <c r="D2">
+        <v>4.2106927697463825E-2</v>
+      </c>
+      <c r="E2">
+        <v>8.1172061210185137E-2</v>
+      </c>
+      <c r="F2">
+        <v>0.13998559087191445</v>
+      </c>
+      <c r="G2">
+        <v>9.5491224041521675E-2</v>
+      </c>
+      <c r="H2">
+        <v>0.19650785964163239</v>
+      </c>
+      <c r="I2">
+        <v>0.10116108563152264</v>
+      </c>
+      <c r="J2">
+        <v>0.11280332564405579</v>
+      </c>
+      <c r="K2">
+        <v>9.080308020954922E-2</v>
+      </c>
+      <c r="L2">
+        <v>0.10402004883582341</v>
+      </c>
+      <c r="M2">
+        <v>7.3236809917710297E-2</v>
+      </c>
+      <c r="N2">
         <v>0.17975631303613016</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>2.9867720791489222E-2</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.39809798194823637</v>
+      </c>
+      <c r="Q2">
+        <v>2.039592281955396E-2</v>
+      </c>
+      <c r="R2">
+        <v>-0.1223857107086631</v>
+      </c>
+      <c r="S2">
+        <v>9.5715020476829574E-2</v>
+      </c>
+      <c r="T2">
+        <v>-9.1083365689081458E-2</v>
+      </c>
+      <c r="U2">
+        <v>0.22651615117178697</v>
+      </c>
+      <c r="V2">
+        <v>4.0147044521457301E-2</v>
+      </c>
+      <c r="W2">
+        <v>7.7605235178691237E-2</v>
+      </c>
+      <c r="X2">
+        <v>0.19614097953839429</v>
+      </c>
+      <c r="Y2">
+        <v>4.7417377374475142E-2</v>
+      </c>
+      <c r="Z2">
+        <v>1.6415312591536828E-2</v>
+      </c>
+      <c r="AA2">
+        <v>7.8878418056940777E-2</v>
+      </c>
+      <c r="AB2">
+        <v>0.1033042494130591</v>
+      </c>
+      <c r="AC2">
+        <v>6.6038003726109795E-2</v>
+      </c>
+      <c r="AD2">
+        <v>9.6002983055560265E-2</v>
+      </c>
+      <c r="AE2">
+        <v>7.5971548966035876E-2</v>
+      </c>
+      <c r="AF2">
+        <v>0.19121950563985668</v>
+      </c>
+      <c r="AG2">
+        <v>0.16904664622518908</v>
+      </c>
+      <c r="AH2">
+        <v>0.13526657049901675</v>
+      </c>
+      <c r="AI2">
+        <v>7.7668972560522673E-2</v>
+      </c>
+      <c r="AJ2">
+        <v>3.1844629438795985E-2</v>
+      </c>
+      <c r="AK2">
+        <v>8.4413778766076586E-2</v>
+      </c>
+      <c r="AL2">
+        <v>0.1135231260997026</v>
+      </c>
+      <c r="AM2">
         <v>0.10359765777763366</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>9.5783367102774079E-3</v>
       </c>
-      <c r="F2">
-        <v>0.13998559316630302</v>
-      </c>
-      <c r="G2">
-        <v>9.5491226523821457E-2</v>
-      </c>
-      <c r="H2">
-        <v>0.19650786432909564</v>
-      </c>
-      <c r="I2">
-        <v>0.10116108669901457</v>
-      </c>
-      <c r="J2">
-        <v>0.11280332781632743</v>
-      </c>
-      <c r="K2">
-        <v>9.0803082284230785E-2</v>
-      </c>
-      <c r="L2">
-        <v>0.10402005102071517</v>
-      </c>
-      <c r="M2">
-        <v>7.323681317690954E-2</v>
-      </c>
-      <c r="N2">
-        <v>0.17975631592257674</v>
-      </c>
-      <c r="O2">
-        <v>2.9867720680275118E-2</v>
-      </c>
-      <c r="P2">
-        <v>0.39809799101054194</v>
-      </c>
-      <c r="Q2">
-        <v>2.0395923517295553E-2</v>
-      </c>
-      <c r="R2">
-        <v>-0.12238571050558988</v>
-      </c>
-      <c r="S2">
-        <v>9.5715022333250077E-2</v>
-      </c>
-      <c r="T2">
-        <v>-9.108336655256262E-2</v>
-      </c>
-      <c r="U2">
-        <v>0.2265161565251772</v>
-      </c>
-      <c r="V2">
-        <v>4.0147045329512757E-2</v>
-      </c>
-      <c r="W2">
-        <v>7.7605235543009285E-2</v>
-      </c>
-      <c r="X2">
-        <v>0.19614098477128153</v>
-      </c>
-      <c r="Y2">
-        <v>4.7417378949040245E-2</v>
-      </c>
-      <c r="Z2">
-        <v>1.6415312612860472E-2</v>
-      </c>
-      <c r="AA2">
-        <v>7.8878420794842849E-2</v>
-      </c>
-      <c r="AB2">
-        <v>0.10330425262799159</v>
-      </c>
-      <c r="AC2">
-        <v>6.6038003960613809E-2</v>
-      </c>
-      <c r="AD2">
-        <v>9.6002988338423023E-2</v>
-      </c>
-      <c r="AE2">
-        <v>7.5971551131332291E-2</v>
-      </c>
-      <c r="AF2">
-        <v>0.19121951004716872</v>
-      </c>
-      <c r="AG2">
-        <v>0.16904665002811137</v>
-      </c>
-      <c r="AH2">
-        <v>0.13526657310646284</v>
-      </c>
-      <c r="AI2">
-        <v>7.7668974727333903E-2</v>
-      </c>
-      <c r="AJ2">
-        <v>3.1844630196893139E-2</v>
-      </c>
-      <c r="AK2">
-        <v>8.4413781250852582E-2</v>
-      </c>
-      <c r="AL2">
-        <v>0.11352312897041308</v>
-      </c>
-      <c r="AM2">
-        <v>0.10359766016619178</v>
-      </c>
-      <c r="AN2">
-        <v>9.5783366906615104E-3</v>
-      </c>
       <c r="AO2">
-        <v>9.0206142170051323E-2</v>
+        <v>9.0206139855065023E-2</v>
       </c>
       <c r="AP2">
-        <v>6.9329311491066262E-2</v>
+        <v>6.9329310515553674E-2</v>
       </c>
       <c r="AQ2">
-        <v>2.4770904939430152E-2</v>
+        <v>2.4770903962902775E-2</v>
       </c>
       <c r="AR2">
-        <v>0.34263099261138641</v>
+        <v>0.3426309860916702</v>
       </c>
       <c r="AS2">
-        <v>7.8025952587974831E-2</v>
+        <v>7.8025950836495592E-2</v>
       </c>
       <c r="AT2">
-        <v>2.9437881013790284E-2</v>
+        <v>2.9437880382553183E-2</v>
       </c>
       <c r="AU2">
-        <v>2.9847173014462963E-2</v>
+        <v>2.9847173758507119E-2</v>
       </c>
       <c r="AV2">
-        <v>8.0635019344324529E-2</v>
+        <v>8.0635016408881224E-2</v>
       </c>
       <c r="AW2">
-        <v>6.4220964557135995E-2</v>
+        <v>6.4220962927693664E-2</v>
       </c>
       <c r="AX2">
-        <v>7.1360942413287692E-2</v>
+        <v>7.1360940566884537E-2</v>
       </c>
       <c r="AY2">
-        <v>8.4297965155564494E-2</v>
+        <v>8.4297963016447985E-2</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>0.13391088218940272</v>
+      </c>
+      <c r="C3">
+        <v>7.3617659208032746E-2</v>
+      </c>
+      <c r="D3">
+        <v>0.13915110296083533</v>
+      </c>
+      <c r="E3">
+        <v>1.4876243558209575E-2</v>
+      </c>
+      <c r="F3">
+        <v>4.1928644949508098E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.1069140124279459</v>
+      </c>
+      <c r="H3">
+        <v>0.16244396377241924</v>
+      </c>
+      <c r="I3">
+        <v>-2.1362117364348721E-2</v>
+      </c>
+      <c r="J3">
+        <v>0.14372092810730175</v>
+      </c>
+      <c r="K3">
+        <v>-3.5202451374959586E-4</v>
+      </c>
+      <c r="L3">
+        <v>8.9042073012636377E-2</v>
+      </c>
+      <c r="M3">
+        <v>0.19543026251456119</v>
+      </c>
+      <c r="N3">
         <v>0.12772286123046353</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>4.5045087332597329E-2</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.35361819254056193</v>
+      </c>
+      <c r="Q3">
+        <v>9.3351043219146751E-2</v>
+      </c>
+      <c r="R3">
+        <v>0.11486536248197167</v>
+      </c>
+      <c r="S3">
+        <v>0.23980051259958549</v>
+      </c>
+      <c r="T3">
+        <v>2.4834281614036634E-2</v>
+      </c>
+      <c r="U3">
+        <v>0.14563374851344613</v>
+      </c>
+      <c r="V3">
+        <v>0.38151732671073257</v>
+      </c>
+      <c r="W3">
+        <v>0.15752888325128653</v>
+      </c>
+      <c r="X3">
+        <v>0.17247714727162541</v>
+      </c>
+      <c r="Y3">
+        <v>0.10875443043437913</v>
+      </c>
+      <c r="Z3">
+        <v>-1.0633965343668594E-2</v>
+      </c>
+      <c r="AA3">
+        <v>0.1038813951798835</v>
+      </c>
+      <c r="AB3">
+        <v>0.10467828849439723</v>
+      </c>
+      <c r="AC3">
+        <v>4.5440464321499154E-2</v>
+      </c>
+      <c r="AD3">
+        <v>6.264882896818165E-2</v>
+      </c>
+      <c r="AE3">
+        <v>7.2405110521155364E-2</v>
+      </c>
+      <c r="AF3">
+        <v>0.15606296771383246</v>
+      </c>
+      <c r="AG3">
+        <v>0.10976199275526191</v>
+      </c>
+      <c r="AH3">
+        <v>0.16666317468185654</v>
+      </c>
+      <c r="AI3">
+        <v>6.2818085852606856E-2</v>
+      </c>
+      <c r="AJ3">
+        <v>-2.4793766151247985E-3</v>
+      </c>
+      <c r="AK3">
+        <v>8.3523503005498892E-2</v>
+      </c>
+      <c r="AL3">
+        <v>0.20280419069518574</v>
+      </c>
+      <c r="AM3">
         <v>0.230627152085778</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>3.0193810726400653E-2</v>
       </c>
-      <c r="F3">
-        <v>4.1928646448520263E-2</v>
-      </c>
-      <c r="G3">
-        <v>0.10691401492038757</v>
-      </c>
-      <c r="H3">
-        <v>0.16244396821748422</v>
-      </c>
-      <c r="I3">
-        <v>-2.1362117776044066E-2</v>
-      </c>
-      <c r="J3">
-        <v>0.14372093026071686</v>
-      </c>
-      <c r="K3">
-        <v>-3.5202356383069717E-4</v>
-      </c>
-      <c r="L3">
-        <v>8.9042075402794116E-2</v>
-      </c>
-      <c r="M3">
-        <v>0.19541141221396954</v>
-      </c>
-      <c r="N3">
-        <v>0.12772286403251554</v>
-      </c>
-      <c r="O3">
-        <v>4.5045087741090215E-2</v>
-      </c>
-      <c r="P3">
-        <v>0.35361819971814668</v>
-      </c>
-      <c r="Q3">
-        <v>9.3351044461149515E-2</v>
-      </c>
-      <c r="R3">
-        <v>0.11486536571417182</v>
-      </c>
-      <c r="S3">
-        <v>0.23980051658074689</v>
-      </c>
-      <c r="T3">
-        <v>2.4834281957311674E-2</v>
-      </c>
-      <c r="U3">
-        <v>0.1456337501342013</v>
-      </c>
-      <c r="V3">
-        <v>0.38151733207390603</v>
-      </c>
-      <c r="W3">
-        <v>0.15752888544423521</v>
-      </c>
-      <c r="X3">
-        <v>0.17247715143977113</v>
-      </c>
-      <c r="Y3">
-        <v>0.10875443224585088</v>
-      </c>
-      <c r="Z3">
-        <v>-1.0633965474274405E-2</v>
-      </c>
-      <c r="AA3">
-        <v>0.10388139825742966</v>
-      </c>
-      <c r="AB3">
-        <v>0.10467829145127354</v>
-      </c>
-      <c r="AC3">
-        <v>4.5440464586767614E-2</v>
-      </c>
-      <c r="AD3">
-        <v>6.2648830886945783E-2</v>
-      </c>
-      <c r="AE3">
-        <v>7.2405111311496281E-2</v>
-      </c>
-      <c r="AF3">
-        <v>0.1560629696074344</v>
-      </c>
-      <c r="AG3">
-        <v>0.10976199542744937</v>
-      </c>
-      <c r="AH3">
-        <v>0.16666318394344354</v>
-      </c>
-      <c r="AI3">
-        <v>6.2818087629534614E-2</v>
-      </c>
-      <c r="AJ3">
-        <v>-2.479377270375695E-3</v>
-      </c>
-      <c r="AK3">
-        <v>8.3523504956407577E-2</v>
-      </c>
-      <c r="AL3">
-        <v>0.20280419489959225</v>
-      </c>
-      <c r="AM3">
-        <v>0.2306271596443088</v>
-      </c>
-      <c r="AN3">
-        <v>3.0193811172942949E-2</v>
-      </c>
       <c r="AO3">
-        <v>0.23857558521154598</v>
+        <v>0.23857557992791384</v>
       </c>
       <c r="AP3">
-        <v>3.6810225305230579E-2</v>
+        <v>3.6810225022362801E-2</v>
       </c>
       <c r="AQ3">
-        <v>4.8525950902324796E-2</v>
+        <v>4.8525950261542029E-2</v>
       </c>
       <c r="AR3">
-        <v>3.1822399646192316E-2</v>
+        <v>3.182239906902587E-2</v>
       </c>
       <c r="AS3">
-        <v>0.1102071241045664</v>
+        <v>0.11020712139185379</v>
       </c>
       <c r="AT3">
-        <v>3.9595631095077195E-2</v>
+        <v>3.959563069579277E-2</v>
       </c>
       <c r="AU3">
-        <v>7.2714637559008879E-2</v>
+        <v>7.2714636065894359E-2</v>
       </c>
       <c r="AV3">
-        <v>0.13161830365966939</v>
+        <v>0.13161830051153098</v>
       </c>
       <c r="AW3">
-        <v>9.8556902313315056E-2</v>
+        <v>9.8556898451851185E-2</v>
       </c>
       <c r="AX3">
-        <v>3.849853451468499E-2</v>
+        <v>3.8498533841964916E-2</v>
       </c>
       <c r="AY3">
-        <v>0.13870443724150522</v>
+        <v>0.13870443544659197</v>
       </c>
     </row>
   </sheetData>
